--- a/medicine/Autisme/Wales_Autism_Research_Centre/Wales_Autism_Research_Centre.xlsx
+++ b/medicine/Autisme/Wales_Autism_Research_Centre/Wales_Autism_Research_Centre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Wales Autism Research Centre (en français : Centre de recherche sur l'autisme au pays de Galles, désigné par l'acronyme WARC), est un département de recherche de l'université de Cardiff créé en septembre 2010.
 </t>
@@ -511,10 +523,12 @@
           <t>Domaine de recherche</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche universitaire porte sur l'autisme, en collaboration avec les autres départements de l'université, le gouvernement britannique et les associations pour la reconnaissance du handicap.
-L'équipe de recherche concentre son travail sur la détection et le diagnostic du syndrome autistique, notamment sur l'aspect sensoriel dans l'autisme[1],[2].
+L'équipe de recherche concentre son travail sur la détection et le diagnostic du syndrome autistique, notamment sur l'aspect sensoriel dans l'autisme,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Détection des facteurs de risque, détection et diagnostic précoce.
 Approche et intervention cognitivo-développementale.
